--- a/Validate/1001-3101/compareZ_1001-1501.xlsx
+++ b/Validate/1001-3101/compareZ_1001-1501.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="13050"/>
+    <workbookView windowWidth="28200" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>Time</t>
   </si>
@@ -30,31 +30,27 @@
     <t>calc_loss25_0.03</t>
   </si>
   <si>
+    <t>CORRECT BY Z</t>
+  </si>
+  <si>
     <t>errors</t>
+  </si>
+  <si>
+    <t>error correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +63,167 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,7 +232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,8 +242,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,45 +452,340 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FF66FF33"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00FF00FF"/>
+      <color rgb="0066FF33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -171,7 +799,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -182,11 +810,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="smooth"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -203,15 +831,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$74</c:f>
@@ -219,223 +852,223 @@
                 <c:formatCode>dd\-mm\-yyyy\ hh:mm</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>43110.458333333299</c:v>
+                  <c:v>43110.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43110.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43110.541666666701</c:v>
+                  <c:v>43110.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43110.583333333299</c:v>
+                  <c:v>43110.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43110.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43110.666666666701</c:v>
+                  <c:v>43110.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43110.708333333299</c:v>
+                  <c:v>43110.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43110.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43110.791666666701</c:v>
+                  <c:v>43110.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43110.833333333299</c:v>
+                  <c:v>43110.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43110.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43110.916666666701</c:v>
+                  <c:v>43110.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43110.958333333299</c:v>
+                  <c:v>43110.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43111.041666666701</c:v>
+                  <c:v>43111.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43111.083333333299</c:v>
+                  <c:v>43111.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43111.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43111.166666666701</c:v>
+                  <c:v>43111.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43111.208333333299</c:v>
+                  <c:v>43111.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43111.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43111.291666666701</c:v>
+                  <c:v>43111.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43111.333333333299</c:v>
+                  <c:v>43111.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43111.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43111.416666666701</c:v>
+                  <c:v>43111.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43111.458333333299</c:v>
+                  <c:v>43111.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43111.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43111.541666666701</c:v>
+                  <c:v>43111.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43111.583333333299</c:v>
+                  <c:v>43111.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43111.625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43111.666666666701</c:v>
+                  <c:v>43111.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43111.708333333299</c:v>
+                  <c:v>43111.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43111.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43111.791666666701</c:v>
+                  <c:v>43111.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43111.833333333299</c:v>
+                  <c:v>43111.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43111.875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43111.916666666701</c:v>
+                  <c:v>43111.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43111.958333333299</c:v>
+                  <c:v>43111.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43112.041666666701</c:v>
+                  <c:v>43112.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43112.083333333299</c:v>
+                  <c:v>43112.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43112.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43112.166666666701</c:v>
+                  <c:v>43112.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43112.208333333299</c:v>
+                  <c:v>43112.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43112.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43112.291666666701</c:v>
+                  <c:v>43112.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43112.333333333299</c:v>
+                  <c:v>43112.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43112.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43112.416666666701</c:v>
+                  <c:v>43112.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43112.458333333299</c:v>
+                  <c:v>43112.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43112.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43112.541666666701</c:v>
+                  <c:v>43112.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43112.583333333299</c:v>
+                  <c:v>43112.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43112.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43112.666666666701</c:v>
+                  <c:v>43112.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43112.708333333299</c:v>
+                  <c:v>43112.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43112.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43112.791666666701</c:v>
+                  <c:v>43112.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43112.833333333299</c:v>
+                  <c:v>43112.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>43112.875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43112.916666666701</c:v>
+                  <c:v>43112.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43112.958333333299</c:v>
+                  <c:v>43112.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43113.041666666701</c:v>
+                  <c:v>43113.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43113.083333333299</c:v>
+                  <c:v>43113.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43113.125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43113.166666666701</c:v>
+                  <c:v>43113.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43113.208333333299</c:v>
+                  <c:v>43113.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>43113.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43113.291666666701</c:v>
+                  <c:v>43113.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43113.333333333299</c:v>
+                  <c:v>43113.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43113.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43113.416666666701</c:v>
+                  <c:v>43113.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43113.458333333299</c:v>
+                  <c:v>43113.4583333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,31 +1080,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>213.80099999999999</c:v>
+                  <c:v>213.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.80699999999999</c:v>
+                  <c:v>213.807</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>213.815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.81700000000001</c:v>
+                  <c:v>213.817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.82499999999999</c:v>
+                  <c:v>213.825</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>213.828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213.83600000000001</c:v>
+                  <c:v>213.836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.84100000000001</c:v>
+                  <c:v>213.841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.84899999999999</c:v>
+                  <c:v>213.849</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>213.863</c:v>
@@ -480,28 +1113,28 @@
                   <c:v>213.86</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>213.86500000000001</c:v>
+                  <c:v>213.865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213.86500000000001</c:v>
+                  <c:v>213.865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>213.863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>213.863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.86600000000001</c:v>
+                  <c:v>213.866</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>213.87100000000001</c:v>
+                  <c:v>213.871</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>213.874</c:v>
@@ -513,115 +1146,115 @@
                   <c:v>213.869</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.86600000000001</c:v>
+                  <c:v>213.866</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.85900000000001</c:v>
+                  <c:v>213.859</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>213.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213.86099999999999</c:v>
+                  <c:v>213.861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213.85499999999999</c:v>
+                  <c:v>213.855</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>213.83699999999999</c:v>
+                  <c:v>213.837</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>213.84200000000001</c:v>
+                  <c:v>213.842</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>213.84</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>213.84399999999999</c:v>
+                  <c:v>213.844</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>213.846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>213.85900000000001</c:v>
+                  <c:v>213.859</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>213.869</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>213.87299999999999</c:v>
+                  <c:v>213.873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>213.87200000000001</c:v>
+                  <c:v>213.872</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>213.87299999999999</c:v>
+                  <c:v>213.873</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>213.87200000000001</c:v>
+                  <c:v>213.872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>213.845</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>213.83600000000001</c:v>
+                  <c:v>213.836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213.81299999999999</c:v>
+                  <c:v>213.813</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>213.809</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>213.79300000000001</c:v>
+                  <c:v>213.793</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>213.78200000000001</c:v>
+                  <c:v>213.782</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>213.77</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>213.78200000000001</c:v>
+                  <c:v>213.782</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>213.79499999999999</c:v>
+                  <c:v>213.795</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>213.792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>213.79499999999999</c:v>
+                  <c:v>213.795</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>213.798</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>213.80600000000001</c:v>
+                  <c:v>213.806</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>213.809</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>213.81299999999999</c:v>
+                  <c:v>213.813</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>213.815</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>213.82400000000001</c:v>
+                  <c:v>213.824</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>213.83199999999999</c:v>
+                  <c:v>213.832</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>213.839</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>213.84100000000001</c:v>
+                  <c:v>213.841</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>213.846</c:v>
@@ -633,37 +1266,37 @@
                   <c:v>213.857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>213.84899999999999</c:v>
+                  <c:v>213.849</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>213.827</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>213.81700000000001</c:v>
+                  <c:v>213.817</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>213.791</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>213.78800000000001</c:v>
+                  <c:v>213.788</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>213.76499999999999</c:v>
+                  <c:v>213.765</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>213.75899999999999</c:v>
+                  <c:v>213.759</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>213.74700000000001</c:v>
+                  <c:v>213.747</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>213.76900000000001</c:v>
+                  <c:v>213.769</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>213.76599999999999</c:v>
+                  <c:v>213.766</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>213.77699999999999</c:v>
+                  <c:v>213.777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,16 +1318,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$74</c:f>
@@ -702,223 +1339,223 @@
                 <c:formatCode>dd\-mm\-yyyy\ hh:mm</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>43110.458333333299</c:v>
+                  <c:v>43110.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43110.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43110.541666666701</c:v>
+                  <c:v>43110.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43110.583333333299</c:v>
+                  <c:v>43110.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43110.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43110.666666666701</c:v>
+                  <c:v>43110.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43110.708333333299</c:v>
+                  <c:v>43110.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43110.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43110.791666666701</c:v>
+                  <c:v>43110.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43110.833333333299</c:v>
+                  <c:v>43110.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43110.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43110.916666666701</c:v>
+                  <c:v>43110.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43110.958333333299</c:v>
+                  <c:v>43110.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43111.041666666701</c:v>
+                  <c:v>43111.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43111.083333333299</c:v>
+                  <c:v>43111.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43111.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43111.166666666701</c:v>
+                  <c:v>43111.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43111.208333333299</c:v>
+                  <c:v>43111.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43111.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43111.291666666701</c:v>
+                  <c:v>43111.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43111.333333333299</c:v>
+                  <c:v>43111.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43111.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43111.416666666701</c:v>
+                  <c:v>43111.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43111.458333333299</c:v>
+                  <c:v>43111.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43111.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43111.541666666701</c:v>
+                  <c:v>43111.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43111.583333333299</c:v>
+                  <c:v>43111.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43111.625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43111.666666666701</c:v>
+                  <c:v>43111.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43111.708333333299</c:v>
+                  <c:v>43111.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43111.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43111.791666666701</c:v>
+                  <c:v>43111.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43111.833333333299</c:v>
+                  <c:v>43111.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43111.875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43111.916666666701</c:v>
+                  <c:v>43111.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43111.958333333299</c:v>
+                  <c:v>43111.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43112.041666666701</c:v>
+                  <c:v>43112.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43112.083333333299</c:v>
+                  <c:v>43112.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43112.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43112.166666666701</c:v>
+                  <c:v>43112.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43112.208333333299</c:v>
+                  <c:v>43112.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43112.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43112.291666666701</c:v>
+                  <c:v>43112.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43112.333333333299</c:v>
+                  <c:v>43112.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43112.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43112.416666666701</c:v>
+                  <c:v>43112.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43112.458333333299</c:v>
+                  <c:v>43112.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43112.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43112.541666666701</c:v>
+                  <c:v>43112.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43112.583333333299</c:v>
+                  <c:v>43112.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43112.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43112.666666666701</c:v>
+                  <c:v>43112.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43112.708333333299</c:v>
+                  <c:v>43112.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43112.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43112.791666666701</c:v>
+                  <c:v>43112.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43112.833333333299</c:v>
+                  <c:v>43112.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>43112.875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43112.916666666701</c:v>
+                  <c:v>43112.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43112.958333333299</c:v>
+                  <c:v>43112.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43113.041666666701</c:v>
+                  <c:v>43113.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43113.083333333299</c:v>
+                  <c:v>43113.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43113.125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43113.166666666701</c:v>
+                  <c:v>43113.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43113.208333333299</c:v>
+                  <c:v>43113.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>43113.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43113.291666666701</c:v>
+                  <c:v>43113.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43113.333333333299</c:v>
+                  <c:v>43113.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43113.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43113.416666666701</c:v>
+                  <c:v>43113.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43113.458333333299</c:v>
+                  <c:v>43113.4583333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,43 +1567,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>213.80099999999999</c:v>
+                  <c:v>213.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.80579675000001</c:v>
+                  <c:v>213.80579675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.81099875999999</c:v>
+                  <c:v>213.81099876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.81652252000001</c:v>
+                  <c:v>213.81652252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.82204379000001</c:v>
+                  <c:v>213.82204379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.82756793999999</c:v>
+                  <c:v>213.82756794</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>213.83311436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.83860257000001</c:v>
+                  <c:v>213.83860257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.84407687000001</c:v>
+                  <c:v>213.84407687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213.84945651000001</c:v>
+                  <c:v>213.84945651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.85339099999999</c:v>
+                  <c:v>213.853391</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>213.85715922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213.86063899000001</c:v>
+                  <c:v>213.86063899</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>213.86246943</c:v>
@@ -975,13 +1612,13 @@
                   <c:v>213.86406646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.86681623000001</c:v>
+                  <c:v>213.86681623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>213.86947993000001</c:v>
+                  <c:v>213.86947993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.87093791999999</c:v>
+                  <c:v>213.87093792</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>213.87353611</c:v>
@@ -990,16 +1627,16 @@
                   <c:v>213.87726992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>213.88105136999999</c:v>
+                  <c:v>213.88105137</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>213.87869608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.87034439999999</c:v>
+                  <c:v>213.8703444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.86195953000001</c:v>
+                  <c:v>213.86195953</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>213.85315878</c:v>
@@ -1013,19 +1650,31 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>FORECASTING</c:v>
+            <c:strRef>
+              <c:f>"FORECASTING"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FORECASTING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$27:$A$74</c:f>
@@ -1036,145 +1685,145 @@
                   <c:v>43111.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43111.541666666701</c:v>
+                  <c:v>43111.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43111.583333333299</c:v>
+                  <c:v>43111.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43111.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43111.666666666701</c:v>
+                  <c:v>43111.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43111.708333333299</c:v>
+                  <c:v>43111.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43111.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43111.791666666701</c:v>
+                  <c:v>43111.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43111.833333333299</c:v>
+                  <c:v>43111.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43111.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43111.916666666701</c:v>
+                  <c:v>43111.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43111.958333333299</c:v>
+                  <c:v>43111.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43112.041666666701</c:v>
+                  <c:v>43112.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43112.083333333299</c:v>
+                  <c:v>43112.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43112.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43112.166666666701</c:v>
+                  <c:v>43112.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43112.208333333299</c:v>
+                  <c:v>43112.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43112.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43112.291666666701</c:v>
+                  <c:v>43112.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43112.333333333299</c:v>
+                  <c:v>43112.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43112.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43112.416666666701</c:v>
+                  <c:v>43112.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43112.458333333299</c:v>
+                  <c:v>43112.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43112.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43112.541666666701</c:v>
+                  <c:v>43112.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43112.583333333299</c:v>
+                  <c:v>43112.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43112.625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43112.666666666701</c:v>
+                  <c:v>43112.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43112.708333333299</c:v>
+                  <c:v>43112.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43112.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43112.791666666701</c:v>
+                  <c:v>43112.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43112.833333333299</c:v>
+                  <c:v>43112.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43112.875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43112.916666666701</c:v>
+                  <c:v>43112.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43112.958333333299</c:v>
+                  <c:v>43112.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43113.041666666701</c:v>
+                  <c:v>43113.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43113.083333333299</c:v>
+                  <c:v>43113.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43113.125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43113.166666666701</c:v>
+                  <c:v>43113.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43113.208333333299</c:v>
+                  <c:v>43113.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43113.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43113.291666666701</c:v>
+                  <c:v>43113.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43113.333333333299</c:v>
+                  <c:v>43113.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43113.375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43113.416666666701</c:v>
+                  <c:v>43113.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43113.458333333299</c:v>
+                  <c:v>43113.4583333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,55 +1835,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>213.85155503999999</c:v>
+                  <c:v>213.85155504</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>213.85227168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.84307165999999</c:v>
+                  <c:v>213.84307166</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>213.8376724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.83955746999999</c:v>
+                  <c:v>213.83955747</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>213.84150853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213.84488949999999</c:v>
+                  <c:v>213.8448895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.84823607999999</c:v>
+                  <c:v>213.84823608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.85771425999999</c:v>
+                  <c:v>213.85771426</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213.86722646000001</c:v>
+                  <c:v>213.86722646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.87067504999999</c:v>
+                  <c:v>213.87067505</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>213.87422583</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213.87760628000001</c:v>
+                  <c:v>213.87760628</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213.88081639999999</c:v>
+                  <c:v>213.8808164</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>213.88419685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.88771356000001</c:v>
+                  <c:v>213.88771356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>213.89109400999999</c:v>
+                  <c:v>213.89109401</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>213.89447446</c:v>
@@ -1243,7 +1892,7 @@
                   <c:v>213.89788898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213.90109910000001</c:v>
+                  <c:v>213.9010991</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>213.90543337</c:v>
@@ -1252,49 +1901,49 @@
                   <c:v>213.90986984</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.91314808999999</c:v>
+                  <c:v>213.91314809</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.91663073999999</c:v>
+                  <c:v>213.91663074</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>213.92004524999999</c:v>
+                  <c:v>213.92004525</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213.92325536999999</c:v>
+                  <c:v>213.92325537</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>213.92649956</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>213.92981187999999</c:v>
+                  <c:v>213.92981188</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>213.93172752999999</c:v>
+                  <c:v>213.93172753</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>213.93360912</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>213.93695550000001</c:v>
+                  <c:v>213.9369555</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213.94023376000001</c:v>
+                  <c:v>213.94023376</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>213.94364827000001</c:v>
+                  <c:v>213.94364827</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>213.94716498</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>213.95061355999999</c:v>
+                  <c:v>213.95061356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>213.95409620000001</c:v>
+                  <c:v>213.9540962</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>213.95764697999999</c:v>
+                  <c:v>213.95764698</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>213.96119775</c:v>
@@ -1303,31 +1952,365 @@
                   <c:v>213.96560015</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>213.96867402000001</c:v>
+                  <c:v>213.96867402</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>213.96946552</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213.97151743000001</c:v>
+                  <c:v>213.97151743</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>213.97482975</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>213.97821020000001</c:v>
+                  <c:v>213.9782102</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>213.98155657999999</c:v>
+                  <c:v>213.98155658</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>213.98480076999999</c:v>
+                  <c:v>213.98480077</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>213.98818122</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>213.99166385999999</c:v>
+                  <c:v>213.99166386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CORRECT BY Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mm\-yyyy\ hh:mm</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>43111.4583333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43111.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43111.5416666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43111.5833333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43111.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43111.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43111.7083333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43111.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43111.7916666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43111.8333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43111.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43111.9166666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43111.9583333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43112.0416666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43112.0833333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43112.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43112.1666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43112.2083333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43112.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43112.2916666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43112.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43112.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43112.4166666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43112.4583333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43112.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43112.5416666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43112.5833333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43112.625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43112.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43112.7083333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43112.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43112.7916666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43112.8333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43112.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43112.9166666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43112.9583333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43113.0416666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43113.0833333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43113.125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43113.1666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43113.2083333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43113.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43113.2916666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43113.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43113.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43113.4166666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43113.4583333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>213.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213.83426261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.83497926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.82577923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.82037997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213.82226505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.82421611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213.82759707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>213.83094365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213.84042183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213.84993403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>213.85338262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213.8569334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213.86031385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>213.86352398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213.86690442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>213.87042113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>213.87380158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213.87718203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213.88059655</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213.88380667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213.88814094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213.89257741</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>213.89585566</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>213.89933831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>213.90275282</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>213.90596295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>213.90920714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>213.91251945</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>213.9144351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>213.91631669</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>213.91966307</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>213.92294133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>213.92635584</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>213.92987255</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>213.93332113</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>213.93680377</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>213.94035455</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>213.94390532</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>213.94830773</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>213.95138159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>213.95217309</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>213.954225</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>213.95753732</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>213.96091777</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>213.96426415</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>213.96750834</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213.97088879</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>213.97437144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,7 +2333,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43113.5"/>
-          <c:min val="43110.400000000001"/>
+          <c:min val="43110.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1358,16 +2341,24 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Time</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1378,6 +2369,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="90874240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1394,16 +2401,24 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Elevation (m)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1414,6 +2429,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="90875776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1425,10 +2456,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76660092044707429"/>
-          <c:y val="0.61998723939002776"/>
-          <c:w val="0.17140070508937866"/>
-          <c:h val="0.22565515315222659"/>
+          <c:x val="0.766600920447074"/>
+          <c:y val="0.619987239390028"/>
+          <c:w val="0.171400705089379"/>
+          <c:h val="0.225655153152227"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1442,6 +2473,22 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1452,12 +2499,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr lang="en-US">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1471,7 +2517,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1482,11 +2528,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="smooth"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1503,15 +2549,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$74</c:f>
@@ -1519,223 +2570,223 @@
                 <c:formatCode>dd\-mm\-yyyy\ hh:mm</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>43110.458333333299</c:v>
+                  <c:v>43110.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43110.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43110.541666666701</c:v>
+                  <c:v>43110.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43110.583333333299</c:v>
+                  <c:v>43110.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43110.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43110.666666666701</c:v>
+                  <c:v>43110.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43110.708333333299</c:v>
+                  <c:v>43110.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43110.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43110.791666666701</c:v>
+                  <c:v>43110.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43110.833333333299</c:v>
+                  <c:v>43110.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43110.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43110.916666666701</c:v>
+                  <c:v>43110.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43110.958333333299</c:v>
+                  <c:v>43110.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43111.041666666701</c:v>
+                  <c:v>43111.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43111.083333333299</c:v>
+                  <c:v>43111.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43111.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43111.166666666701</c:v>
+                  <c:v>43111.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43111.208333333299</c:v>
+                  <c:v>43111.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43111.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43111.291666666701</c:v>
+                  <c:v>43111.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43111.333333333299</c:v>
+                  <c:v>43111.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43111.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43111.416666666701</c:v>
+                  <c:v>43111.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43111.458333333299</c:v>
+                  <c:v>43111.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43111.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43111.541666666701</c:v>
+                  <c:v>43111.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43111.583333333299</c:v>
+                  <c:v>43111.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43111.625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43111.666666666701</c:v>
+                  <c:v>43111.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43111.708333333299</c:v>
+                  <c:v>43111.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43111.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43111.791666666701</c:v>
+                  <c:v>43111.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43111.833333333299</c:v>
+                  <c:v>43111.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43111.875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43111.916666666701</c:v>
+                  <c:v>43111.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43111.958333333299</c:v>
+                  <c:v>43111.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43112.041666666701</c:v>
+                  <c:v>43112.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43112.083333333299</c:v>
+                  <c:v>43112.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43112.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43112.166666666701</c:v>
+                  <c:v>43112.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43112.208333333299</c:v>
+                  <c:v>43112.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43112.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43112.291666666701</c:v>
+                  <c:v>43112.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43112.333333333299</c:v>
+                  <c:v>43112.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43112.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43112.416666666701</c:v>
+                  <c:v>43112.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43112.458333333299</c:v>
+                  <c:v>43112.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43112.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43112.541666666701</c:v>
+                  <c:v>43112.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43112.583333333299</c:v>
+                  <c:v>43112.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43112.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43112.666666666701</c:v>
+                  <c:v>43112.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43112.708333333299</c:v>
+                  <c:v>43112.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43112.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43112.791666666701</c:v>
+                  <c:v>43112.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43112.833333333299</c:v>
+                  <c:v>43112.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>43112.875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43112.916666666701</c:v>
+                  <c:v>43112.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43112.958333333299</c:v>
+                  <c:v>43112.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43113.041666666701</c:v>
+                  <c:v>43113.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43113.083333333299</c:v>
+                  <c:v>43113.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43113.125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43113.166666666701</c:v>
+                  <c:v>43113.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43113.208333333299</c:v>
+                  <c:v>43113.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>43113.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43113.291666666701</c:v>
+                  <c:v>43113.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43113.333333333299</c:v>
+                  <c:v>43113.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43113.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43113.416666666701</c:v>
+                  <c:v>43113.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43113.458333333299</c:v>
+                  <c:v>43113.4583333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,31 +2798,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>213.80099999999999</c:v>
+                  <c:v>213.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.80699999999999</c:v>
+                  <c:v>213.807</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>213.815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.81700000000001</c:v>
+                  <c:v>213.817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.82499999999999</c:v>
+                  <c:v>213.825</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>213.828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213.83600000000001</c:v>
+                  <c:v>213.836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.84100000000001</c:v>
+                  <c:v>213.841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.84899999999999</c:v>
+                  <c:v>213.849</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>213.863</c:v>
@@ -1780,28 +2831,28 @@
                   <c:v>213.86</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>213.86500000000001</c:v>
+                  <c:v>213.865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213.86500000000001</c:v>
+                  <c:v>213.865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>213.863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>213.863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.86600000000001</c:v>
+                  <c:v>213.866</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>213.87100000000001</c:v>
+                  <c:v>213.871</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>213.874</c:v>
@@ -1813,115 +2864,115 @@
                   <c:v>213.869</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.86600000000001</c:v>
+                  <c:v>213.866</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.85900000000001</c:v>
+                  <c:v>213.859</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>213.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213.86099999999999</c:v>
+                  <c:v>213.861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213.85499999999999</c:v>
+                  <c:v>213.855</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>213.83699999999999</c:v>
+                  <c:v>213.837</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>213.84200000000001</c:v>
+                  <c:v>213.842</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>213.84</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>213.84399999999999</c:v>
+                  <c:v>213.844</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>213.846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>213.85900000000001</c:v>
+                  <c:v>213.859</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>213.869</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>213.87299999999999</c:v>
+                  <c:v>213.873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>213.87200000000001</c:v>
+                  <c:v>213.872</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>213.87299999999999</c:v>
+                  <c:v>213.873</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>213.87200000000001</c:v>
+                  <c:v>213.872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>213.86699999999999</c:v>
+                  <c:v>213.867</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>213.845</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>213.83600000000001</c:v>
+                  <c:v>213.836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213.81299999999999</c:v>
+                  <c:v>213.813</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>213.809</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>213.79300000000001</c:v>
+                  <c:v>213.793</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>213.78200000000001</c:v>
+                  <c:v>213.782</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>213.77</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>213.78200000000001</c:v>
+                  <c:v>213.782</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>213.79499999999999</c:v>
+                  <c:v>213.795</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>213.792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>213.79499999999999</c:v>
+                  <c:v>213.795</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>213.798</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>213.80600000000001</c:v>
+                  <c:v>213.806</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>213.809</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>213.81299999999999</c:v>
+                  <c:v>213.813</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>213.815</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>213.82400000000001</c:v>
+                  <c:v>213.824</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>213.83199999999999</c:v>
+                  <c:v>213.832</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>213.839</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>213.84100000000001</c:v>
+                  <c:v>213.841</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>213.846</c:v>
@@ -1933,37 +2984,37 @@
                   <c:v>213.857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>213.84899999999999</c:v>
+                  <c:v>213.849</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>213.827</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>213.81700000000001</c:v>
+                  <c:v>213.817</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>213.791</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>213.78800000000001</c:v>
+                  <c:v>213.788</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>213.76499999999999</c:v>
+                  <c:v>213.765</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>213.75899999999999</c:v>
+                  <c:v>213.759</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>213.74700000000001</c:v>
+                  <c:v>213.747</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>213.76900000000001</c:v>
+                  <c:v>213.769</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>213.76599999999999</c:v>
+                  <c:v>213.766</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>213.77699999999999</c:v>
+                  <c:v>213.777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,16 +3036,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$74</c:f>
@@ -2002,223 +3057,223 @@
                 <c:formatCode>dd\-mm\-yyyy\ hh:mm</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>43110.458333333299</c:v>
+                  <c:v>43110.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43110.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43110.541666666701</c:v>
+                  <c:v>43110.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43110.583333333299</c:v>
+                  <c:v>43110.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43110.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43110.666666666701</c:v>
+                  <c:v>43110.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43110.708333333299</c:v>
+                  <c:v>43110.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43110.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43110.791666666701</c:v>
+                  <c:v>43110.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43110.833333333299</c:v>
+                  <c:v>43110.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43110.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43110.916666666701</c:v>
+                  <c:v>43110.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43110.958333333299</c:v>
+                  <c:v>43110.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43111.041666666701</c:v>
+                  <c:v>43111.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43111.083333333299</c:v>
+                  <c:v>43111.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43111.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43111.166666666701</c:v>
+                  <c:v>43111.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43111.208333333299</c:v>
+                  <c:v>43111.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43111.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43111.291666666701</c:v>
+                  <c:v>43111.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43111.333333333299</c:v>
+                  <c:v>43111.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43111.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43111.416666666701</c:v>
+                  <c:v>43111.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43111.458333333299</c:v>
+                  <c:v>43111.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43111.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43111.541666666701</c:v>
+                  <c:v>43111.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43111.583333333299</c:v>
+                  <c:v>43111.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43111.625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43111.666666666701</c:v>
+                  <c:v>43111.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43111.708333333299</c:v>
+                  <c:v>43111.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43111.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43111.791666666701</c:v>
+                  <c:v>43111.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43111.833333333299</c:v>
+                  <c:v>43111.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43111.875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43111.916666666701</c:v>
+                  <c:v>43111.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43111.958333333299</c:v>
+                  <c:v>43111.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43112.041666666701</c:v>
+                  <c:v>43112.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43112.083333333299</c:v>
+                  <c:v>43112.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43112.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43112.166666666701</c:v>
+                  <c:v>43112.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43112.208333333299</c:v>
+                  <c:v>43112.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43112.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43112.291666666701</c:v>
+                  <c:v>43112.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43112.333333333299</c:v>
+                  <c:v>43112.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43112.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43112.416666666701</c:v>
+                  <c:v>43112.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43112.458333333299</c:v>
+                  <c:v>43112.4583333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43112.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43112.541666666701</c:v>
+                  <c:v>43112.5416666667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43112.583333333299</c:v>
+                  <c:v>43112.5833333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43112.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43112.666666666701</c:v>
+                  <c:v>43112.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43112.708333333299</c:v>
+                  <c:v>43112.7083333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>43112.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43112.791666666701</c:v>
+                  <c:v>43112.7916666667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43112.833333333299</c:v>
+                  <c:v>43112.8333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>43112.875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43112.916666666701</c:v>
+                  <c:v>43112.9166666667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43112.958333333299</c:v>
+                  <c:v>43112.9583333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43113.041666666701</c:v>
+                  <c:v>43113.0416666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43113.083333333299</c:v>
+                  <c:v>43113.0833333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43113.125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43113.166666666701</c:v>
+                  <c:v>43113.1666666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43113.208333333299</c:v>
+                  <c:v>43113.2083333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>43113.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43113.291666666701</c:v>
+                  <c:v>43113.2916666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43113.333333333299</c:v>
+                  <c:v>43113.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43113.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43113.416666666701</c:v>
+                  <c:v>43113.4166666667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43113.458333333299</c:v>
+                  <c:v>43113.4583333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,43 +3285,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>213.80099999999999</c:v>
+                  <c:v>213.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.80579675000001</c:v>
+                  <c:v>213.80579675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.81099875999999</c:v>
+                  <c:v>213.81099876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.81652252000001</c:v>
+                  <c:v>213.81652252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.82204379000001</c:v>
+                  <c:v>213.82204379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.82756793999999</c:v>
+                  <c:v>213.82756794</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>213.83311436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.83860257000001</c:v>
+                  <c:v>213.83860257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.84407687000001</c:v>
+                  <c:v>213.84407687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213.84945651000001</c:v>
+                  <c:v>213.84945651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.85339099999999</c:v>
+                  <c:v>213.853391</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>213.85715922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213.86063899000001</c:v>
+                  <c:v>213.86063899</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>213.86246943</c:v>
@@ -2275,13 +3330,13 @@
                   <c:v>213.86406646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.86681623000001</c:v>
+                  <c:v>213.86681623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>213.86947993000001</c:v>
+                  <c:v>213.86947993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.87093791999999</c:v>
+                  <c:v>213.87093792</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>213.87353611</c:v>
@@ -2290,16 +3345,16 @@
                   <c:v>213.87726992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>213.88105136999999</c:v>
+                  <c:v>213.88105137</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>213.87869608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.87034439999999</c:v>
+                  <c:v>213.8703444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.86195953000001</c:v>
+                  <c:v>213.86195953</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>213.85315878</c:v>
@@ -2308,10 +3363,10 @@
                   <c:v>213.8515721</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213.85230215999999</c:v>
+                  <c:v>213.85230216</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>213.84220450999999</c:v>
+                  <c:v>213.84220451</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>213.83568387</c:v>
@@ -2323,13 +3378,13 @@
                   <c:v>213.83947967</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213.84314047000001</c:v>
+                  <c:v>213.84314047</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>213.84690694</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>213.85702585999999</c:v>
+                  <c:v>213.85702586</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>213.86724594</c:v>
@@ -2341,40 +3396,40 @@
                   <c:v>213.87412071</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>213.87520352000001</c:v>
+                  <c:v>213.87520352</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>213.87498626999999</c:v>
+                  <c:v>213.87498627</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>213.87071316000001</c:v>
+                  <c:v>213.87071316</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>213.86161726</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213.85047778000001</c:v>
+                  <c:v>213.85047778</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>213.83860469999999</c:v>
+                  <c:v>213.8386047</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>213.82648354</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>213.81404946999999</c:v>
+                  <c:v>213.81404947</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>213.80332773999999</c:v>
+                  <c:v>213.80332774</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>213.79797052000001</c:v>
+                  <c:v>213.79797052</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>213.79786951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>213.80048224999999</c:v>
+                  <c:v>213.80048225</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>213.80406549</c:v>
@@ -2386,13 +3441,13 @@
                   <c:v>213.81170877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>213.81576326999999</c:v>
+                  <c:v>213.81576327</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>213.81834289</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>213.82081607999999</c:v>
+                  <c:v>213.82081608</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>213.8248566</c:v>
@@ -2407,31 +3462,31 @@
                   <c:v>213.8402777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>213.84571872999999</c:v>
+                  <c:v>213.84571873</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>213.85116927999999</c:v>
+                  <c:v>213.85116928</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>213.85590421000001</c:v>
+                  <c:v>213.85590421</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>213.85488996000001</c:v>
+                  <c:v>213.85488996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>213.84786765000001</c:v>
+                  <c:v>213.84786765</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>213.83687846000001</c:v>
+                  <c:v>213.83687846</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>213.82259216</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>213.80917597999999</c:v>
+                  <c:v>213.80917598</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>213.79687010000001</c:v>
+                  <c:v>213.7968701</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>213.78457462</c:v>
@@ -2452,10 +3507,10 @@
                   <c:v>213.77727023</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.77639740000001</c:v>
+                  <c:v>213.7763974</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>213.76917915999999</c:v>
+                  <c:v>213.76917916</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>213.7654708</c:v>
@@ -2464,10 +3519,10 @@
                   <c:v>213.76820425</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>213.77187294000001</c:v>
+                  <c:v>213.77187294</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>213.77528434999999</c:v>
+                  <c:v>213.77528435</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>213.78054064</c:v>
@@ -2476,16 +3531,16 @@
                   <c:v>213.78697835</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>213.79341106999999</c:v>
+                  <c:v>213.79341107</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>213.79991279999999</c:v>
+                  <c:v>213.7999128</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>213.80634671999999</c:v>
+                  <c:v>213.80634672</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>213.81273182000001</c:v>
+                  <c:v>213.81273182</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>213.8182913</c:v>
@@ -2500,31 +3555,31 @@
                   <c:v>213.79899085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>213.78713203000001</c:v>
+                  <c:v>213.78713203</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>213.77495870000001</c:v>
+                  <c:v>213.7749587</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>213.76262510000001</c:v>
+                  <c:v>213.7626251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>213.75086089000001</c:v>
+                  <c:v>213.75086089</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>213.74445352999999</c:v>
+                  <c:v>213.74445353</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>213.74457910999999</c:v>
+                  <c:v>213.74457911</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>213.75274912</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>213.76334496000001</c:v>
+                  <c:v>213.76334496</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>213.77310252999999</c:v>
+                  <c:v>213.77310253</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>213.78060628</c:v>
@@ -2533,31 +3588,31 @@
                   <c:v>213.78228392</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>213.78295822000001</c:v>
+                  <c:v>213.78295822</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>213.78304374999999</c:v>
+                  <c:v>213.78304375</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>213.78314865999999</c:v>
+                  <c:v>213.78314866</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>213.78353598000001</c:v>
+                  <c:v>213.78353598</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>213.78393517000001</c:v>
+                  <c:v>213.78393517</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>213.7842904</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>213.78453368999999</c:v>
+                  <c:v>213.78453369</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>213.78479382</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>213.78525827999999</c:v>
+                  <c:v>213.78525828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,7 +3635,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43113.5"/>
-          <c:min val="43110.400000000001"/>
+          <c:min val="43110.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2588,16 +3643,24 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Time</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2608,6 +3671,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="107895808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2624,16 +3703,24 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Elevation (m)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2644,6 +3731,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="100075008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2655,10 +3758,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76660092044707429"/>
-          <c:y val="0.6776102525632921"/>
-          <c:w val="0.17140070508937866"/>
-          <c:h val="0.16803212572003576"/>
+          <c:x val="0.766600920447074"/>
+          <c:y val="0.677610252563292"/>
+          <c:w val="0.171400705089379"/>
+          <c:h val="0.168032125720036"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2672,6 +3775,22 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2682,12 +3801,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr lang="en-US">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2699,28 +3817,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>113984</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7343775" y="385445"/>
+        <a:ext cx="9658350" cy="3966845"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2732,27 +3850,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6648450" y="4772025"/>
+        <a:ext cx="9915525" cy="3966845"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3046,1452 +4162,1968 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875"/>
-    <col min="7" max="7" width="12.85546875"/>
+    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.8571428571429" customWidth="1"/>
+    <col min="4" max="5" width="16.5714285714286" customWidth="1"/>
+    <col min="6" max="8" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="18.75" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43110.458333333299</v>
-      </c>
-      <c r="B2" s="3">
-        <v>213.80099999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>213.80099999999999</v>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5">
+        <v>43110.4583333333</v>
+      </c>
+      <c r="B2" s="6">
+        <v>213.801</v>
+      </c>
+      <c r="C2" s="7">
+        <v>213.801</v>
       </c>
       <c r="D2">
-        <v>213.80099999999999</v>
-      </c>
-      <c r="E2">
+        <v>213.801</v>
+      </c>
+      <c r="E2" s="8">
+        <v>213.801</v>
+      </c>
+      <c r="F2">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="G2">
+        <f>E2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
         <v>43110.5</v>
       </c>
-      <c r="B3" s="3">
-        <v>213.80699999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>213.80579675000001</v>
+      <c r="B3" s="6">
+        <v>213.807</v>
+      </c>
+      <c r="C3" s="7">
+        <v>213.80579675</v>
       </c>
       <c r="D3">
-        <v>213.80579675000001</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">C3-B3</f>
-        <v>-1.203249999974787E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43110.541666666701</v>
-      </c>
-      <c r="B4" s="3">
+        <v>213.80579675</v>
+      </c>
+      <c r="E3" s="8">
+        <v>213.807</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">C3-B3</f>
+        <v>-0.00120324999997479</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="1">E3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>43110.5416666667</v>
+      </c>
+      <c r="B4" s="6">
         <v>213.815</v>
       </c>
-      <c r="C4" s="1">
-        <v>213.81099875999999</v>
+      <c r="C4" s="7">
+        <v>213.81099876</v>
       </c>
       <c r="D4">
-        <v>213.81099875999999</v>
-      </c>
-      <c r="E4">
+        <v>213.81099876</v>
+      </c>
+      <c r="E4" s="8">
+        <v>213.815</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>-4.0012400000080106E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43110.583333333299</v>
-      </c>
-      <c r="B5" s="3">
-        <v>213.81700000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>213.81652252000001</v>
+        <v>-0.00400124000000801</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>43110.5833333333</v>
+      </c>
+      <c r="B5" s="6">
+        <v>213.817</v>
+      </c>
+      <c r="C5" s="7">
+        <v>213.81652252</v>
       </c>
       <c r="D5">
-        <v>213.81652252000001</v>
-      </c>
-      <c r="E5">
+        <v>213.81652252</v>
+      </c>
+      <c r="E5" s="8">
+        <v>213.817</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>-4.7748000000069624E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+        <v>-0.000477480000000696</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
         <v>43110.625</v>
       </c>
-      <c r="B6" s="3">
-        <v>213.82499999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>213.82204379000001</v>
+      <c r="B6" s="6">
+        <v>213.825</v>
+      </c>
+      <c r="C6" s="7">
+        <v>213.82204379</v>
       </c>
       <c r="D6">
-        <v>213.82204379000001</v>
-      </c>
-      <c r="E6">
+        <v>213.82204379</v>
+      </c>
+      <c r="E6" s="8">
+        <v>213.825</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>-2.9562099999793645E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43110.666666666701</v>
-      </c>
-      <c r="B7" s="3">
+        <v>-0.00295620999997936</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>43110.6666666667</v>
+      </c>
+      <c r="B7" s="6">
         <v>213.828</v>
       </c>
-      <c r="C7" s="1">
-        <v>213.82756793999999</v>
+      <c r="C7" s="7">
+        <v>213.82756794</v>
       </c>
       <c r="D7">
-        <v>213.82756793999999</v>
-      </c>
-      <c r="E7">
+        <v>213.82756794</v>
+      </c>
+      <c r="E7" s="8">
+        <v>213.828</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>-4.3206000000850509E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43110.708333333299</v>
-      </c>
-      <c r="B8" s="3">
-        <v>213.83600000000001</v>
-      </c>
-      <c r="C8" s="1">
+        <v>-0.000432060000008505</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>43110.7083333333</v>
+      </c>
+      <c r="B8" s="6">
+        <v>213.836</v>
+      </c>
+      <c r="C8" s="7">
         <v>213.83311436</v>
       </c>
       <c r="D8">
         <v>213.83311436</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
+        <v>213.836</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>-2.885640000016565E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+        <v>-0.00288564000001656</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
         <v>43110.75</v>
       </c>
-      <c r="B9" s="3">
-        <v>213.84100000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>213.83860257000001</v>
+      <c r="B9" s="6">
+        <v>213.841</v>
+      </c>
+      <c r="C9" s="7">
+        <v>213.83860257</v>
       </c>
       <c r="D9">
-        <v>213.83860257000001</v>
-      </c>
-      <c r="E9">
+        <v>213.83860257</v>
+      </c>
+      <c r="E9" s="8">
+        <v>213.841</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>-2.3974300000020321E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43110.791666666701</v>
-      </c>
-      <c r="B10" s="3">
-        <v>213.84899999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>213.84407687000001</v>
+        <v>-0.00239743000000203</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>43110.7916666667</v>
+      </c>
+      <c r="B10" s="6">
+        <v>213.849</v>
+      </c>
+      <c r="C10" s="7">
+        <v>213.84407687</v>
       </c>
       <c r="D10">
-        <v>213.84407687000001</v>
-      </c>
-      <c r="E10">
+        <v>213.84407687</v>
+      </c>
+      <c r="E10" s="8">
+        <v>213.849</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>-4.9231299999803468E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43110.833333333299</v>
-      </c>
-      <c r="B11" s="3">
+        <v>-0.00492312999998035</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>43110.8333333333</v>
+      </c>
+      <c r="B11" s="6">
         <v>213.863</v>
       </c>
-      <c r="C11" s="1">
-        <v>213.84945651000001</v>
+      <c r="C11" s="7">
+        <v>213.84945651</v>
       </c>
       <c r="D11">
-        <v>213.84945651000001</v>
-      </c>
-      <c r="E11">
+        <v>213.84945651</v>
+      </c>
+      <c r="E11" s="8">
+        <v>213.863</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>-1.3543489999989333E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
+        <v>-0.0135434899999893</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
         <v>43110.875</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>213.86</v>
       </c>
-      <c r="C12" s="1">
-        <v>213.85339099999999</v>
+      <c r="C12" s="7">
+        <v>213.853391</v>
       </c>
       <c r="D12">
-        <v>213.85339099999999</v>
-      </c>
-      <c r="E12">
+        <v>213.853391</v>
+      </c>
+      <c r="E12" s="8">
+        <v>213.86</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>-6.6090000000258442E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43110.916666666701</v>
-      </c>
-      <c r="B13" s="3">
-        <v>213.86500000000001</v>
-      </c>
-      <c r="C13" s="1">
+        <v>-0.00660900000002584</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>43110.9166666667</v>
+      </c>
+      <c r="B13" s="6">
+        <v>213.865</v>
+      </c>
+      <c r="C13" s="7">
         <v>213.85715922</v>
       </c>
       <c r="D13">
         <v>213.85715922</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
+        <v>213.865</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>-7.8407800000093175E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>43110.958333333299</v>
-      </c>
-      <c r="B14" s="3">
-        <v>213.86500000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>213.86063899000001</v>
+        <v>-0.00784078000000932</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>43110.9583333333</v>
+      </c>
+      <c r="B14" s="6">
+        <v>213.865</v>
+      </c>
+      <c r="C14" s="7">
+        <v>213.86063899</v>
       </c>
       <c r="D14">
-        <v>213.86063899000001</v>
-      </c>
-      <c r="E14">
+        <v>213.86063899</v>
+      </c>
+      <c r="E14" s="8">
+        <v>213.865</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>-4.3610099999966678E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
+        <v>-0.00436100999999667</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
         <v>43111</v>
       </c>
-      <c r="B15" s="3">
-        <v>213.86699999999999</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="6">
+        <v>213.867</v>
+      </c>
+      <c r="C15" s="7">
         <v>213.86246943</v>
       </c>
       <c r="D15">
         <v>213.86246943</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
+        <v>213.867</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>-4.5305699999858007E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>43111.041666666701</v>
-      </c>
-      <c r="B16" s="3">
+        <v>-0.0045305699999858</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>43111.0416666667</v>
+      </c>
+      <c r="B16" s="6">
         <v>213.863</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>213.86406646</v>
       </c>
       <c r="D16">
         <v>213.86406646</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
+        <v>213.863</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>1.0664600000040991E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>43111.083333333299</v>
-      </c>
-      <c r="B17" s="3">
-        <v>213.86699999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>213.86681623000001</v>
+        <v>0.0010664600000041</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>43111.0833333333</v>
+      </c>
+      <c r="B17" s="6">
+        <v>213.867</v>
+      </c>
+      <c r="C17" s="7">
+        <v>213.86681623</v>
       </c>
       <c r="D17">
-        <v>213.86681623000001</v>
-      </c>
-      <c r="E17">
+        <v>213.86681623</v>
+      </c>
+      <c r="E17" s="8">
+        <v>213.867</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>-1.8376999997826715E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+        <v>-0.000183769999978267</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
         <v>43111.125</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>213.863</v>
       </c>
-      <c r="C18" s="1">
-        <v>213.86947993000001</v>
+      <c r="C18" s="7">
+        <v>213.86947993</v>
       </c>
       <c r="D18">
-        <v>213.86947993000001</v>
-      </c>
-      <c r="E18">
+        <v>213.86947993</v>
+      </c>
+      <c r="E18" s="8">
+        <v>213.863</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>6.479930000011791E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>43111.166666666701</v>
-      </c>
-      <c r="B19" s="3">
-        <v>213.86600000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>213.87093791999999</v>
+        <v>0.00647993000001179</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>43111.1666666667</v>
+      </c>
+      <c r="B19" s="6">
+        <v>213.866</v>
+      </c>
+      <c r="C19" s="7">
+        <v>213.87093792</v>
       </c>
       <c r="D19">
-        <v>213.87093791999999</v>
-      </c>
-      <c r="E19">
+        <v>213.87093792</v>
+      </c>
+      <c r="E19" s="8">
+        <v>213.866</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>4.937919999974838E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>43111.208333333299</v>
-      </c>
-      <c r="B20" s="3">
-        <v>213.87100000000001</v>
-      </c>
-      <c r="C20" s="1">
+        <v>0.00493791999997484</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>43111.2083333333</v>
+      </c>
+      <c r="B20" s="6">
+        <v>213.871</v>
+      </c>
+      <c r="C20" s="7">
         <v>213.87353611</v>
       </c>
       <c r="D20">
         <v>213.87353611</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
+        <v>213.871</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>2.5361099999940961E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+        <v>0.0025361099999941</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
         <v>43111.25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>213.874</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>213.87726992</v>
       </c>
       <c r="D21">
         <v>213.87726992</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
+        <v>213.874</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>3.2699200000081419E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>43111.291666666701</v>
-      </c>
-      <c r="B22" s="3">
+        <v>0.00326992000000814</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>43111.2916666667</v>
+      </c>
+      <c r="B22" s="6">
         <v>213.874</v>
       </c>
-      <c r="C22" s="1">
-        <v>213.88105136999999</v>
+      <c r="C22" s="7">
+        <v>213.88105137</v>
       </c>
       <c r="D22">
-        <v>213.88105136999999</v>
-      </c>
-      <c r="E22">
+        <v>213.88105137</v>
+      </c>
+      <c r="E22" s="8">
+        <v>213.874</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>7.0513699999992241E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>43111.333333333299</v>
-      </c>
-      <c r="B23" s="3">
+        <v>0.00705136999999922</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>43111.3333333333</v>
+      </c>
+      <c r="B23" s="6">
         <v>213.869</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>213.87869608</v>
       </c>
       <c r="D23">
         <v>213.87869608</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
+        <v>213.869</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>9.6960799999976643E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
+        <v>0.00969607999999766</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
         <v>43111.375</v>
       </c>
-      <c r="B24" s="3">
-        <v>213.86600000000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>213.87034439999999</v>
+      <c r="B24" s="6">
+        <v>213.866</v>
+      </c>
+      <c r="C24" s="7">
+        <v>213.8703444</v>
       </c>
       <c r="D24">
-        <v>213.87034439999999</v>
-      </c>
-      <c r="E24">
+        <v>213.8703444</v>
+      </c>
+      <c r="E24" s="8">
+        <v>213.866</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>4.3443999999794869E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>43111.416666666701</v>
-      </c>
-      <c r="B25" s="3">
-        <v>213.85900000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>213.86195953000001</v>
+        <v>0.00434439999997949</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>43111.4166666667</v>
+      </c>
+      <c r="B25" s="6">
+        <v>213.859</v>
+      </c>
+      <c r="C25" s="7">
+        <v>213.86195953</v>
       </c>
       <c r="D25">
-        <v>213.86195953000001</v>
-      </c>
-      <c r="E25">
+        <v>213.86195953</v>
+      </c>
+      <c r="E25" s="8">
+        <v>213.859</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>2.9595299999982672E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>43111.458333333299</v>
-      </c>
-      <c r="B26" s="3">
+        <v>0.00295952999999827</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
+        <v>43111.4583333333</v>
+      </c>
+      <c r="B26" s="6">
         <v>213.85</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>213.85315878</v>
       </c>
       <c r="D26">
         <v>213.85315878</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
+        <v>213.85</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>3.1587800000068E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
+        <v>0.0031587800000068</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
         <v>43111.5</v>
       </c>
-      <c r="B27" s="3">
-        <v>213.86099999999999</v>
-      </c>
-      <c r="C27" s="4">
-        <v>213.85155503999999</v>
+      <c r="B27" s="6">
+        <v>213.861</v>
+      </c>
+      <c r="C27" s="9">
+        <v>213.85155504</v>
       </c>
       <c r="D27">
         <v>213.8515721</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
+        <v>213.83426261</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>-9.444959999996172E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>43111.541666666701</v>
-      </c>
-      <c r="B28" s="3">
-        <v>213.85499999999999</v>
-      </c>
-      <c r="C28" s="4">
+        <v>-0.00944495999999617</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.0267373899999939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>43111.5416666667</v>
+      </c>
+      <c r="B28" s="6">
+        <v>213.855</v>
+      </c>
+      <c r="C28" s="9">
         <v>213.85227168</v>
       </c>
       <c r="D28">
-        <v>213.85230215999999</v>
-      </c>
-      <c r="E28">
+        <v>213.85230216</v>
+      </c>
+      <c r="E28" s="10">
+        <v>213.83497926</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>-2.728319999988571E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>43111.583333333299</v>
-      </c>
-      <c r="B29" s="3">
-        <v>213.83699999999999</v>
-      </c>
-      <c r="C29" s="4">
-        <v>213.84307165999999</v>
+        <v>-0.00272831999998857</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.0200207399999783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>43111.5833333333</v>
+      </c>
+      <c r="B29" s="6">
+        <v>213.837</v>
+      </c>
+      <c r="C29" s="9">
+        <v>213.84307166</v>
       </c>
       <c r="D29">
-        <v>213.84220450999999</v>
-      </c>
-      <c r="E29">
+        <v>213.84220451</v>
+      </c>
+      <c r="E29" s="10">
+        <v>213.82577923</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>6.0716600000034759E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
+        <v>0.00607166000000348</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.0112207699999942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
         <v>43111.625</v>
       </c>
-      <c r="B30" s="3">
-        <v>213.84200000000001</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="6">
+        <v>213.842</v>
+      </c>
+      <c r="C30" s="9">
         <v>213.8376724</v>
       </c>
       <c r="D30">
         <v>213.83568387</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="10">
+        <v>213.82037997</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>-4.3276000000105341E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>43111.666666666701</v>
-      </c>
-      <c r="B31" s="3">
+        <v>-0.00432760000001053</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.0216200300000082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>43111.6666666667</v>
+      </c>
+      <c r="B31" s="6">
         <v>213.84</v>
       </c>
-      <c r="C31" s="4">
-        <v>213.83955746999999</v>
+      <c r="C31" s="9">
+        <v>213.83955747</v>
       </c>
       <c r="D31">
         <v>213.83737442</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="10">
+        <v>213.82226505</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>-4.4253000001504006E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>43111.708333333299</v>
-      </c>
-      <c r="B32" s="3">
-        <v>213.84399999999999</v>
-      </c>
-      <c r="C32" s="4">
+        <v>-0.00044253000001504</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-0.0177349500000048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
+        <v>43111.7083333333</v>
+      </c>
+      <c r="B32" s="6">
+        <v>213.844</v>
+      </c>
+      <c r="C32" s="9">
         <v>213.84150853</v>
       </c>
       <c r="D32">
         <v>213.83947967</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="10">
+        <v>213.82421611</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
-        <v>-2.4914699999953882E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
+        <v>-0.00249146999999539</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-0.0197838899999851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
         <v>43111.75</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>213.846</v>
       </c>
-      <c r="C33" s="4">
-        <v>213.84488949999999</v>
+      <c r="C33" s="9">
+        <v>213.8448895</v>
       </c>
       <c r="D33">
-        <v>213.84314047000001</v>
-      </c>
-      <c r="E33">
+        <v>213.84314047</v>
+      </c>
+      <c r="E33" s="10">
+        <v>213.82759707</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
-        <v>-1.1105000000100063E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>43111.791666666701</v>
-      </c>
-      <c r="B34" s="3">
-        <v>213.85900000000001</v>
-      </c>
-      <c r="C34" s="4">
-        <v>213.84823607999999</v>
+        <v>-0.00111050000001001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-0.0184029300000077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>43111.7916666667</v>
+      </c>
+      <c r="B34" s="6">
+        <v>213.859</v>
+      </c>
+      <c r="C34" s="9">
+        <v>213.84823608</v>
       </c>
       <c r="D34">
         <v>213.84690694</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="10">
+        <v>213.83094365</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>-1.0763920000016469E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>43111.833333333299</v>
-      </c>
-      <c r="B35" s="3">
+        <v>-0.0107639200000165</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-0.0280563500000142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5">
+        <v>43111.8333333333</v>
+      </c>
+      <c r="B35" s="6">
         <v>213.869</v>
       </c>
-      <c r="C35" s="4">
-        <v>213.85771425999999</v>
+      <c r="C35" s="9">
+        <v>213.85771426</v>
       </c>
       <c r="D35">
-        <v>213.85702585999999</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35:E66" si="1">C35-B35</f>
-        <v>-1.1285740000005262E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
+        <v>213.85702586</v>
+      </c>
+      <c r="E35" s="10">
+        <v>213.84042183</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="2">C35-B35</f>
+        <v>-0.0112857400000053</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G66" si="3">E35-B35</f>
+        <v>-0.028578170000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
         <v>43111.875</v>
       </c>
-      <c r="B36" s="3">
-        <v>213.87299999999999</v>
-      </c>
-      <c r="C36" s="4">
-        <v>213.86722646000001</v>
+      <c r="B36" s="6">
+        <v>213.873</v>
+      </c>
+      <c r="C36" s="9">
+        <v>213.86722646</v>
       </c>
       <c r="D36">
         <v>213.86724594</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>-5.7735399999785386E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>43111.916666666701</v>
-      </c>
-      <c r="B37" s="3">
-        <v>213.87200000000001</v>
-      </c>
-      <c r="C37" s="4">
-        <v>213.87067504999999</v>
+      <c r="E36" s="10">
+        <v>213.84993403</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>-0.00577353999997854</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>-0.0230659700000047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5">
+        <v>43111.9166666667</v>
+      </c>
+      <c r="B37" s="6">
+        <v>213.872</v>
+      </c>
+      <c r="C37" s="9">
+        <v>213.87067505</v>
       </c>
       <c r="D37">
         <v>213.87124964</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>-1.3249500000256376E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>43111.958333333299</v>
-      </c>
-      <c r="B38" s="3">
-        <v>213.87299999999999</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="E37" s="10">
+        <v>213.85338262</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>-0.00132495000002564</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>-0.0186173800000233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5">
+        <v>43111.9583333333</v>
+      </c>
+      <c r="B38" s="6">
+        <v>213.873</v>
+      </c>
+      <c r="C38" s="9">
         <v>213.87422583</v>
       </c>
       <c r="D38">
         <v>213.87412071</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1.2258300000098643E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
+      <c r="E38" s="10">
+        <v>213.8569334</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.00122583000000986</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>-0.0160665999999878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5">
         <v>43112</v>
       </c>
-      <c r="B39" s="3">
-        <v>213.87200000000001</v>
-      </c>
-      <c r="C39" s="4">
-        <v>213.87760628000001</v>
+      <c r="B39" s="6">
+        <v>213.872</v>
+      </c>
+      <c r="C39" s="9">
+        <v>213.87760628</v>
       </c>
       <c r="D39">
-        <v>213.87520352000001</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>5.6062799999949675E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>43112.041666666701</v>
-      </c>
-      <c r="B40" s="3">
-        <v>213.86699999999999</v>
-      </c>
-      <c r="C40" s="4">
-        <v>213.88081639999999</v>
+        <v>213.87520352</v>
+      </c>
+      <c r="E39" s="10">
+        <v>213.86031385</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.00560627999999497</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>-0.0116861500000027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5">
+        <v>43112.0416666667</v>
+      </c>
+      <c r="B40" s="6">
+        <v>213.867</v>
+      </c>
+      <c r="C40" s="9">
+        <v>213.8808164</v>
       </c>
       <c r="D40">
-        <v>213.87498626999999</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>1.3816399999996065E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>43112.083333333299</v>
-      </c>
-      <c r="B41" s="3">
+        <v>213.87498627</v>
+      </c>
+      <c r="E40" s="10">
+        <v>213.86352398</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.0138163999999961</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>-0.0034760199999937</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5">
+        <v>43112.0833333333</v>
+      </c>
+      <c r="B41" s="6">
         <v>213.845</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="9">
         <v>213.88419685</v>
       </c>
       <c r="D41">
-        <v>213.87071316000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>3.9196849999996175E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
+        <v>213.87071316</v>
+      </c>
+      <c r="E41" s="10">
+        <v>213.86690442</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.0391968499999962</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.0219044199999985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5">
         <v>43112.125</v>
       </c>
-      <c r="B42" s="3">
-        <v>213.83600000000001</v>
-      </c>
-      <c r="C42" s="4">
-        <v>213.88771356000001</v>
+      <c r="B42" s="6">
+        <v>213.836</v>
+      </c>
+      <c r="C42" s="9">
+        <v>213.88771356</v>
       </c>
       <c r="D42">
         <v>213.86161726</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>5.171355999999605E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>43112.166666666701</v>
-      </c>
-      <c r="B43" s="3">
-        <v>213.81299999999999</v>
-      </c>
-      <c r="C43" s="4">
-        <v>213.89109400999999</v>
+      <c r="E42" s="10">
+        <v>213.87042113</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.0517135599999961</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.0344211299999984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5">
+        <v>43112.1666666667</v>
+      </c>
+      <c r="B43" s="6">
+        <v>213.813</v>
+      </c>
+      <c r="C43" s="9">
+        <v>213.89109401</v>
       </c>
       <c r="D43">
-        <v>213.85047778000001</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>7.8094010000000935E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>43112.208333333299</v>
-      </c>
-      <c r="B44" s="3">
+        <v>213.85047778</v>
+      </c>
+      <c r="E43" s="10">
+        <v>213.87380158</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0.0780940100000009</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0.0608015800000032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="5">
+        <v>43112.2083333333</v>
+      </c>
+      <c r="B44" s="6">
         <v>213.809</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="9">
         <v>213.89447446</v>
       </c>
       <c r="D44">
-        <v>213.83860469999999</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>8.5474460000000363E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
+        <v>213.8386047</v>
+      </c>
+      <c r="E44" s="10">
+        <v>213.87718203</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.0854744600000004</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0.0681820300000027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5">
         <v>43112.25</v>
       </c>
-      <c r="B45" s="3">
-        <v>213.79300000000001</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="6">
+        <v>213.793</v>
+      </c>
+      <c r="C45" s="9">
         <v>213.89788898</v>
       </c>
       <c r="D45">
         <v>213.82648354</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0.10488897999999836</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>43112.291666666701</v>
-      </c>
-      <c r="B46" s="3">
-        <v>213.78200000000001</v>
-      </c>
-      <c r="C46" s="4">
-        <v>213.90109910000001</v>
+      <c r="E45" s="10">
+        <v>213.88059655</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0.104888979999998</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0.0875965500000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5">
+        <v>43112.2916666667</v>
+      </c>
+      <c r="B46" s="6">
+        <v>213.782</v>
+      </c>
+      <c r="C46" s="9">
+        <v>213.9010991</v>
       </c>
       <c r="D46">
-        <v>213.81404946999999</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0.11909909999999968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>43112.333333333299</v>
-      </c>
-      <c r="B47" s="3">
+        <v>213.81404947</v>
+      </c>
+      <c r="E46" s="10">
+        <v>213.88380667</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.1190991</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0.101806670000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5">
+        <v>43112.3333333333</v>
+      </c>
+      <c r="B47" s="6">
         <v>213.77</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="9">
         <v>213.90543337</v>
       </c>
       <c r="D47">
-        <v>213.80332773999999</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0.13543336999998701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
+        <v>213.80332774</v>
+      </c>
+      <c r="E47" s="10">
+        <v>213.88814094</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0.135433369999987</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.118140939999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5">
         <v>43112.375</v>
       </c>
-      <c r="B48" s="3">
-        <v>213.78200000000001</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="6">
+        <v>213.782</v>
+      </c>
+      <c r="C48" s="9">
         <v>213.90986984</v>
       </c>
       <c r="D48">
-        <v>213.79797052000001</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0.12786983999998824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
-        <v>43112.416666666701</v>
-      </c>
-      <c r="B49" s="3">
-        <v>213.79499999999999</v>
-      </c>
-      <c r="C49" s="4">
-        <v>213.91314808999999</v>
+        <v>213.79797052</v>
+      </c>
+      <c r="E48" s="10">
+        <v>213.89257741</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0.127869839999988</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0.110577409999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="5">
+        <v>43112.4166666667</v>
+      </c>
+      <c r="B49" s="6">
+        <v>213.795</v>
+      </c>
+      <c r="C49" s="9">
+        <v>213.91314809</v>
       </c>
       <c r="D49">
         <v>213.79786951</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0.11814809000000537</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
-        <v>43112.458333333299</v>
-      </c>
-      <c r="B50" s="3">
+      <c r="E49" s="10">
+        <v>213.89585566</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0.118148090000005</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0.100855660000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="5">
+        <v>43112.4583333333</v>
+      </c>
+      <c r="B50" s="6">
         <v>213.792</v>
       </c>
-      <c r="C50" s="4">
-        <v>213.91663073999999</v>
+      <c r="C50" s="9">
+        <v>213.91663074</v>
       </c>
       <c r="D50">
-        <v>213.80048224999999</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>0.12463073999998642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
+        <v>213.80048225</v>
+      </c>
+      <c r="E50" s="10">
+        <v>213.89933831</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0.124630739999986</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>0.107338309999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5">
         <v>43112.5</v>
       </c>
-      <c r="B51" s="3">
-        <v>213.79499999999999</v>
-      </c>
-      <c r="C51" s="4">
-        <v>213.92004524999999</v>
+      <c r="B51" s="6">
+        <v>213.795</v>
+      </c>
+      <c r="C51" s="9">
+        <v>213.92004525</v>
       </c>
       <c r="D51">
         <v>213.80406549</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>0.12504524999999944</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2">
-        <v>43112.541666666701</v>
-      </c>
-      <c r="B52" s="3">
+      <c r="E51" s="10">
+        <v>213.90275282</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0.125045249999999</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0.107752820000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="5">
+        <v>43112.5416666667</v>
+      </c>
+      <c r="B52" s="6">
         <v>213.798</v>
       </c>
-      <c r="C52" s="4">
-        <v>213.92325536999999</v>
+      <c r="C52" s="9">
+        <v>213.92325537</v>
       </c>
       <c r="D52">
         <v>213.80780898</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0.12525536999999076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>43112.583333333299</v>
-      </c>
-      <c r="B53" s="3">
-        <v>213.80600000000001</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="E52" s="10">
+        <v>213.90596295</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0.125255369999991</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0.107962950000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5">
+        <v>43112.5833333333</v>
+      </c>
+      <c r="B53" s="6">
+        <v>213.806</v>
+      </c>
+      <c r="C53" s="9">
         <v>213.92649956</v>
       </c>
       <c r="D53">
         <v>213.81170877</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>0.12049955999998474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2">
+      <c r="E53" s="10">
+        <v>213.90920714</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0.120499559999985</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0.103207139999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="5">
         <v>43112.625</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="6">
         <v>213.809</v>
       </c>
-      <c r="C54" s="4">
-        <v>213.92981187999999</v>
+      <c r="C54" s="9">
+        <v>213.92981188</v>
       </c>
       <c r="D54">
-        <v>213.81576326999999</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0.12081187999999088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2">
-        <v>43112.666666666701</v>
-      </c>
-      <c r="B55" s="3">
-        <v>213.81299999999999</v>
-      </c>
-      <c r="C55" s="4">
-        <v>213.93172752999999</v>
+        <v>213.81576327</v>
+      </c>
+      <c r="E54" s="10">
+        <v>213.91251945</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0.120811879999991</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0.103519449999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="5">
+        <v>43112.6666666667</v>
+      </c>
+      <c r="B55" s="6">
+        <v>213.813</v>
+      </c>
+      <c r="C55" s="9">
+        <v>213.93172753</v>
       </c>
       <c r="D55">
         <v>213.81834289</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0.11872753000000102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2">
-        <v>43112.708333333299</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="E55" s="10">
+        <v>213.9144351</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0.118727530000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0.101435100000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="5">
+        <v>43112.7083333333</v>
+      </c>
+      <c r="B56" s="6">
         <v>213.815</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="9">
         <v>213.93360912</v>
       </c>
       <c r="D56">
-        <v>213.82081607999999</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0.11860912000000212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2">
+        <v>213.82081608</v>
+      </c>
+      <c r="E56" s="10">
+        <v>213.91631669</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0.118609120000002</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0.101316690000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="5">
         <v>43112.75</v>
       </c>
-      <c r="B57" s="3">
-        <v>213.82400000000001</v>
-      </c>
-      <c r="C57" s="4">
-        <v>213.93695550000001</v>
+      <c r="B57" s="6">
+        <v>213.824</v>
+      </c>
+      <c r="C57" s="9">
+        <v>213.9369555</v>
       </c>
       <c r="D57">
         <v>213.8248566</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0.11295549999999821</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2">
-        <v>43112.791666666701</v>
-      </c>
-      <c r="B58" s="3">
-        <v>213.83199999999999</v>
-      </c>
-      <c r="C58" s="4">
-        <v>213.94023376000001</v>
+      <c r="E57" s="10">
+        <v>213.91966307</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0.112955499999998</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>0.0956630700000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="5">
+        <v>43112.7916666667</v>
+      </c>
+      <c r="B58" s="6">
+        <v>213.832</v>
+      </c>
+      <c r="C58" s="9">
+        <v>213.94023376</v>
       </c>
       <c r="D58">
         <v>213.8293749</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0.10823376000001872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2">
-        <v>43112.833333333299</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="E58" s="10">
+        <v>213.92294133</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0.108233760000019</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>0.0909413299999926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="5">
+        <v>43112.8333333333</v>
+      </c>
+      <c r="B59" s="6">
         <v>213.839</v>
       </c>
-      <c r="C59" s="4">
-        <v>213.94364827000001</v>
+      <c r="C59" s="9">
+        <v>213.94364827</v>
       </c>
       <c r="D59">
         <v>213.83469778</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0.10464827000001264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2">
+      <c r="E59" s="10">
+        <v>213.92635584</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0.104648270000013</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>0.087355840000015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="5">
         <v>43112.875</v>
       </c>
-      <c r="B60" s="3">
-        <v>213.84100000000001</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="6">
+        <v>213.841</v>
+      </c>
+      <c r="C60" s="9">
         <v>213.94716498</v>
       </c>
       <c r="D60">
         <v>213.8402777</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0.10616497999998842</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2">
-        <v>43112.916666666701</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="E60" s="10">
+        <v>213.92987255</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0.106164979999988</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>0.0888725499999907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="5">
+        <v>43112.9166666667</v>
+      </c>
+      <c r="B61" s="6">
         <v>213.846</v>
       </c>
-      <c r="C61" s="4">
-        <v>213.95061355999999</v>
+      <c r="C61" s="9">
+        <v>213.95061356</v>
       </c>
       <c r="D61">
-        <v>213.84571872999999</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
+        <v>213.84571873</v>
+      </c>
+      <c r="E61" s="10">
+        <v>213.93332113</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
         <v>0.10461355999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2">
-        <v>43112.958333333299</v>
-      </c>
-      <c r="B62" s="3">
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>0.0873211299999923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="5">
+        <v>43112.9583333333</v>
+      </c>
+      <c r="B62" s="6">
         <v>213.851</v>
       </c>
-      <c r="C62" s="4">
-        <v>213.95409620000001</v>
+      <c r="C62" s="9">
+        <v>213.9540962</v>
       </c>
       <c r="D62">
-        <v>213.85116927999999</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0.10309620000001019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2">
+        <v>213.85116928</v>
+      </c>
+      <c r="E62" s="10">
+        <v>213.93680377</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0.10309620000001</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>0.0858037700000125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="5">
         <v>43113</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="6">
         <v>213.857</v>
       </c>
-      <c r="C63" s="4">
-        <v>213.95764697999999</v>
+      <c r="C63" s="9">
+        <v>213.95764698</v>
       </c>
       <c r="D63">
-        <v>213.85590421000001</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0.10064697999999339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2">
-        <v>43113.041666666701</v>
-      </c>
-      <c r="B64" s="3">
-        <v>213.84899999999999</v>
-      </c>
-      <c r="C64" s="4">
+        <v>213.85590421</v>
+      </c>
+      <c r="E63" s="10">
+        <v>213.94035455</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0.100646979999993</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>0.0833545499999957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5">
+        <v>43113.0416666667</v>
+      </c>
+      <c r="B64" s="6">
+        <v>213.849</v>
+      </c>
+      <c r="C64" s="9">
         <v>213.96119775</v>
       </c>
       <c r="D64">
-        <v>213.85488996000001</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0.11219775000000709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2">
-        <v>43113.083333333299</v>
-      </c>
-      <c r="B65" s="3">
+        <v>213.85488996</v>
+      </c>
+      <c r="E64" s="10">
+        <v>213.94390532</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0.112197750000007</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>0.0949053200000094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5">
+        <v>43113.0833333333</v>
+      </c>
+      <c r="B65" s="6">
         <v>213.827</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="9">
         <v>213.96560015</v>
       </c>
       <c r="D65">
-        <v>213.84786765000001</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>0.13860015000000203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2">
+        <v>213.84786765</v>
+      </c>
+      <c r="E65" s="10">
+        <v>213.94830773</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0.138600150000002</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>0.121307730000012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="5">
         <v>43113.125</v>
       </c>
-      <c r="B66" s="3">
-        <v>213.81700000000001</v>
-      </c>
-      <c r="C66" s="4">
-        <v>213.96867402000001</v>
+      <c r="B66" s="6">
+        <v>213.817</v>
+      </c>
+      <c r="C66" s="9">
+        <v>213.96867402</v>
       </c>
       <c r="D66">
-        <v>213.83687846000001</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0.15167402000000152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2">
-        <v>43113.166666666701</v>
-      </c>
-      <c r="B67" s="3">
+        <v>213.83687846</v>
+      </c>
+      <c r="E66" s="10">
+        <v>213.95138159</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0.151674020000002</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>0.134381590000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5">
+        <v>43113.1666666667</v>
+      </c>
+      <c r="B67" s="6">
         <v>213.791</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="9">
         <v>213.96946552</v>
       </c>
       <c r="D67">
         <v>213.82259216</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E74" si="2">C67-B67</f>
-        <v>0.17846552000000315</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2">
-        <v>43113.208333333299</v>
-      </c>
-      <c r="B68" s="3">
-        <v>213.78800000000001</v>
-      </c>
-      <c r="C68" s="4">
-        <v>213.97151743000001</v>
+      <c r="E67" s="10">
+        <v>213.95217309</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F74" si="4">C67-B67</f>
+        <v>0.178465520000003</v>
+      </c>
+      <c r="G67">
+        <f>E67-B67</f>
+        <v>0.161173090000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="5">
+        <v>43113.2083333333</v>
+      </c>
+      <c r="B68" s="6">
+        <v>213.788</v>
+      </c>
+      <c r="C68" s="9">
+        <v>213.97151743</v>
       </c>
       <c r="D68">
-        <v>213.80917597999999</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="2"/>
-        <v>0.18351742999999487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2">
+        <v>213.80917598</v>
+      </c>
+      <c r="E68" s="10">
+        <v>213.954225</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>0.183517429999995</v>
+      </c>
+      <c r="G68">
+        <f>E68-B68</f>
+        <v>0.166224999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="5">
         <v>43113.25</v>
       </c>
-      <c r="B69" s="3">
-        <v>213.76499999999999</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="6">
+        <v>213.765</v>
+      </c>
+      <c r="C69" s="9">
         <v>213.97482975</v>
       </c>
       <c r="D69">
-        <v>213.79687010000001</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="2"/>
-        <v>0.20982975000001147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2">
-        <v>43113.291666666701</v>
-      </c>
-      <c r="B70" s="3">
-        <v>213.75899999999999</v>
-      </c>
-      <c r="C70" s="4">
-        <v>213.97821020000001</v>
+        <v>213.7968701</v>
+      </c>
+      <c r="E69" s="10">
+        <v>213.95753732</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0.209829750000011</v>
+      </c>
+      <c r="G69">
+        <f>E69-B69</f>
+        <v>0.192537320000014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="5">
+        <v>43113.2916666667</v>
+      </c>
+      <c r="B70" s="6">
+        <v>213.759</v>
+      </c>
+      <c r="C70" s="9">
+        <v>213.9782102</v>
       </c>
       <c r="D70">
         <v>213.78457462</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>0.21921020000002045</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2">
-        <v>43113.333333333299</v>
-      </c>
-      <c r="B71" s="3">
-        <v>213.74700000000001</v>
-      </c>
-      <c r="C71" s="4">
-        <v>213.98155657999999</v>
+      <c r="E70" s="10">
+        <v>213.96091777</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0.21921020000002</v>
+      </c>
+      <c r="G70">
+        <f>E70-B70</f>
+        <v>0.201917770000023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="5">
+        <v>43113.3333333333</v>
+      </c>
+      <c r="B71" s="6">
+        <v>213.747</v>
+      </c>
+      <c r="C71" s="9">
+        <v>213.98155658</v>
       </c>
       <c r="D71">
         <v>213.77291997</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="2"/>
-        <v>0.2345565799999747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2">
+      <c r="E71" s="10">
+        <v>213.96426415</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0.234556579999975</v>
+      </c>
+      <c r="G71">
+        <f>E71-B71</f>
+        <v>0.217264149999977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="5">
         <v>43113.375</v>
       </c>
-      <c r="B72" s="3">
-        <v>213.76900000000001</v>
-      </c>
-      <c r="C72" s="4">
-        <v>213.98480076999999</v>
+      <c r="B72" s="6">
+        <v>213.769</v>
+      </c>
+      <c r="C72" s="9">
+        <v>213.98480077</v>
       </c>
       <c r="D72">
         <v>213.76700738</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>0.2158007699999871</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2">
-        <v>43113.416666666701</v>
-      </c>
-      <c r="B73" s="3">
-        <v>213.76599999999999</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="E72" s="10">
+        <v>213.96750834</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>0.215800769999987</v>
+      </c>
+      <c r="G72">
+        <f>E72-B72</f>
+        <v>0.198508339999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5">
+        <v>43113.4166666667</v>
+      </c>
+      <c r="B73" s="6">
+        <v>213.766</v>
+      </c>
+      <c r="C73" s="9">
         <v>213.98818122</v>
       </c>
       <c r="D73">
         <v>213.76841137</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>0.22218122000001017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2">
-        <v>43113.458333333299</v>
-      </c>
-      <c r="B74" s="3">
-        <v>213.77699999999999</v>
-      </c>
-      <c r="C74" s="4">
-        <v>213.99166385999999</v>
+      <c r="E73" s="10">
+        <v>213.97088879</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>0.22218122000001</v>
+      </c>
+      <c r="G73">
+        <f>E73-B73</f>
+        <v>0.204888790000012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="5">
+        <v>43113.4583333333</v>
+      </c>
+      <c r="B74" s="6">
+        <v>213.777</v>
+      </c>
+      <c r="C74" s="9">
+        <v>213.99166386</v>
       </c>
       <c r="D74">
         <v>213.77265398</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
-        <v>0.2146638600000017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2">
+      <c r="E74" s="10">
+        <v>213.97437144</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>0.214663860000002</v>
+      </c>
+      <c r="G74">
+        <f>E74-B74</f>
+        <v>0.197371440000012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5">
         <v>43113.5</v>
       </c>
-      <c r="B75" s="3">
-        <v>213.78200000000001</v>
+      <c r="B75" s="6">
+        <v>213.782</v>
       </c>
       <c r="D75">
         <v>213.77727023</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2">
-        <v>43113.541666666701</v>
-      </c>
-      <c r="B76" s="3">
+    <row r="76" spans="1:4">
+      <c r="A76" s="5">
+        <v>43113.5416666667</v>
+      </c>
+      <c r="B76" s="6">
         <v>213.756</v>
       </c>
       <c r="D76">
-        <v>213.77639740000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2">
-        <v>43113.583333333299</v>
-      </c>
-      <c r="B77" s="3">
-        <v>213.75299999999999</v>
+        <v>213.7763974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5">
+        <v>43113.5833333333</v>
+      </c>
+      <c r="B77" s="6">
+        <v>213.753</v>
       </c>
       <c r="D77">
-        <v>213.76917915999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2">
+        <v>213.76917916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5">
         <v>43113.625</v>
       </c>
-      <c r="B78" s="3">
-        <v>213.75899999999999</v>
+      <c r="B78" s="6">
+        <v>213.759</v>
       </c>
       <c r="D78">
         <v>213.7654708</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2">
-        <v>43113.666666666701</v>
-      </c>
-      <c r="B79" s="3">
-        <v>213.76499999999999</v>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5">
+        <v>43113.6666666667</v>
+      </c>
+      <c r="B79" s="6">
+        <v>213.765</v>
       </c>
       <c r="D79">
         <v>213.76820425</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2">
-        <v>43113.708333333299</v>
-      </c>
-      <c r="B80" s="3">
+    <row r="80" spans="1:4">
+      <c r="A80" s="5">
+        <v>43113.7083333333</v>
+      </c>
+      <c r="B80" s="6">
         <v>213.767</v>
       </c>
       <c r="D80">
-        <v>213.77187294000001</v>
+        <v>213.77187294</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="5">
         <v>43113.75</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="6">
         <v>213.774</v>
       </c>
       <c r="D81">
-        <v>213.77528434999999</v>
+        <v>213.77528435</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
-        <v>43113.791666666701</v>
-      </c>
-      <c r="B82" s="3">
-        <v>213.78700000000001</v>
+      <c r="A82" s="5">
+        <v>43113.7916666667</v>
+      </c>
+      <c r="B82" s="6">
+        <v>213.787</v>
       </c>
       <c r="D82">
         <v>213.78054064</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2">
-        <v>43113.833333333299</v>
-      </c>
-      <c r="B83" s="3">
+      <c r="A83" s="5">
+        <v>43113.8333333333</v>
+      </c>
+      <c r="B83" s="6">
         <v>213.792</v>
       </c>
       <c r="D83">
@@ -4499,54 +6131,54 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="5">
         <v>43113.875</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="6">
         <v>213.8</v>
       </c>
       <c r="D84">
-        <v>213.79341106999999</v>
+        <v>213.79341107</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
-        <v>43113.916666666701</v>
-      </c>
-      <c r="B85" s="3">
-        <v>213.80699999999999</v>
+      <c r="A85" s="5">
+        <v>43113.9166666667</v>
+      </c>
+      <c r="B85" s="6">
+        <v>213.807</v>
       </c>
       <c r="D85">
-        <v>213.79991279999999</v>
+        <v>213.7999128</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2">
-        <v>43113.958333333299</v>
-      </c>
-      <c r="B86" s="3">
-        <v>213.81100000000001</v>
+      <c r="A86" s="5">
+        <v>43113.9583333333</v>
+      </c>
+      <c r="B86" s="6">
+        <v>213.811</v>
       </c>
       <c r="D86">
-        <v>213.80634671999999</v>
+        <v>213.80634672</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="5">
         <v>43114</v>
       </c>
-      <c r="B87" s="3">
-        <v>213.81100000000001</v>
+      <c r="B87" s="6">
+        <v>213.811</v>
       </c>
       <c r="D87">
-        <v>213.81273182000001</v>
+        <v>213.81273182</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2">
-        <v>43114.041666666701</v>
-      </c>
-      <c r="B88" s="3">
+      <c r="A88" s="5">
+        <v>43114.0416666667</v>
+      </c>
+      <c r="B88" s="6">
         <v>213.82</v>
       </c>
       <c r="D88">
@@ -4554,109 +6186,109 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2">
-        <v>43114.083333333299</v>
-      </c>
-      <c r="B89" s="3">
-        <v>213.81200000000001</v>
+      <c r="A89" s="5">
+        <v>43114.0833333333</v>
+      </c>
+      <c r="B89" s="6">
+        <v>213.812</v>
       </c>
       <c r="D89">
         <v>213.81769072</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2">
+      <c r="A90" s="5">
         <v>43114.125</v>
       </c>
-      <c r="B90" s="3">
-        <v>213.78899999999999</v>
+      <c r="B90" s="6">
+        <v>213.789</v>
       </c>
       <c r="D90">
         <v>213.80976626</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2">
-        <v>43114.166666666701</v>
-      </c>
-      <c r="B91" s="3">
-        <v>213.78299999999999</v>
+      <c r="A91" s="5">
+        <v>43114.1666666667</v>
+      </c>
+      <c r="B91" s="6">
+        <v>213.783</v>
       </c>
       <c r="D91">
         <v>213.79899085</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2">
-        <v>43114.208333333299</v>
-      </c>
-      <c r="B92" s="3">
-        <v>213.76400000000001</v>
+      <c r="A92" s="5">
+        <v>43114.2083333333</v>
+      </c>
+      <c r="B92" s="6">
+        <v>213.764</v>
       </c>
       <c r="D92">
-        <v>213.78713203000001</v>
+        <v>213.78713203</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="5">
         <v>43114.25</v>
       </c>
-      <c r="B93" s="3">
-        <v>213.75800000000001</v>
+      <c r="B93" s="6">
+        <v>213.758</v>
       </c>
       <c r="D93">
-        <v>213.77495870000001</v>
+        <v>213.7749587</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2">
-        <v>43114.291666666701</v>
-      </c>
-      <c r="B94" s="3">
+      <c r="A94" s="5">
+        <v>43114.2916666667</v>
+      </c>
+      <c r="B94" s="6">
         <v>213.738</v>
       </c>
       <c r="D94">
-        <v>213.76262510000001</v>
+        <v>213.7626251</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2">
-        <v>43114.333333333299</v>
-      </c>
-      <c r="B95" s="3">
-        <v>213.72900000000001</v>
+      <c r="A95" s="5">
+        <v>43114.3333333333</v>
+      </c>
+      <c r="B95" s="6">
+        <v>213.729</v>
       </c>
       <c r="D95">
-        <v>213.75086089000001</v>
+        <v>213.75086089</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2">
+      <c r="A96" s="5">
         <v>43114.375</v>
       </c>
-      <c r="B96" s="3">
-        <v>213.73699999999999</v>
+      <c r="B96" s="6">
+        <v>213.737</v>
       </c>
       <c r="D96">
-        <v>213.74445352999999</v>
+        <v>213.74445353</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2">
-        <v>43114.416666666701</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="A97" s="5">
+        <v>43114.4166666667</v>
+      </c>
+      <c r="B97" s="6">
         <v>213.738</v>
       </c>
       <c r="D97">
-        <v>213.74457910999999</v>
+        <v>213.74457911</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2">
-        <v>43114.458333333299</v>
-      </c>
-      <c r="B98" s="3">
+      <c r="A98" s="5">
+        <v>43114.4583333333</v>
+      </c>
+      <c r="B98" s="6">
         <v>213.738</v>
       </c>
       <c r="D98">
@@ -4664,43 +6296,43 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2">
+      <c r="A99" s="5">
         <v>43114.5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="6">
         <v>213.762</v>
       </c>
       <c r="D99">
-        <v>213.76334496000001</v>
+        <v>213.76334496</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2">
-        <v>43114.541666666701</v>
-      </c>
-      <c r="B100" s="3">
-        <v>213.77699999999999</v>
+      <c r="A100" s="5">
+        <v>43114.5416666667</v>
+      </c>
+      <c r="B100" s="6">
+        <v>213.777</v>
       </c>
       <c r="D100">
-        <v>213.77310252999999</v>
+        <v>213.77310253</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2">
-        <v>43114.583333333299</v>
-      </c>
-      <c r="B101" s="3">
-        <v>213.77099999999999</v>
+      <c r="A101" s="5">
+        <v>43114.5833333333</v>
+      </c>
+      <c r="B101" s="6">
+        <v>213.771</v>
       </c>
       <c r="D101">
         <v>213.78060628</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2">
+      <c r="A102" s="5">
         <v>43114.625</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="6">
         <v>213.773</v>
       </c>
       <c r="D102">
@@ -4708,65 +6340,65 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2">
-        <v>43114.666666666701</v>
-      </c>
-      <c r="B103" s="3">
-        <v>213.77199999999999</v>
+      <c r="A103" s="5">
+        <v>43114.6666666667</v>
+      </c>
+      <c r="B103" s="6">
+        <v>213.772</v>
       </c>
       <c r="D103">
-        <v>213.78295822000001</v>
+        <v>213.78295822</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2">
-        <v>43114.708333333299</v>
-      </c>
-      <c r="B104" s="3">
-        <v>213.77799999999999</v>
+      <c r="A104" s="5">
+        <v>43114.7083333333</v>
+      </c>
+      <c r="B104" s="6">
+        <v>213.778</v>
       </c>
       <c r="D104">
-        <v>213.78304374999999</v>
+        <v>213.78304375</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2">
+      <c r="A105" s="5">
         <v>43114.75</v>
       </c>
-      <c r="B105" s="3">
-        <v>213.77500000000001</v>
+      <c r="B105" s="6">
+        <v>213.775</v>
       </c>
       <c r="D105">
-        <v>213.78314865999999</v>
+        <v>213.78314866</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2">
-        <v>43114.791666666701</v>
-      </c>
-      <c r="B106" s="3">
+      <c r="A106" s="5">
+        <v>43114.7916666667</v>
+      </c>
+      <c r="B106" s="6">
         <v>213.78</v>
       </c>
       <c r="D106">
-        <v>213.78353598000001</v>
+        <v>213.78353598</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="2">
-        <v>43114.833333333299</v>
-      </c>
-      <c r="B107" s="3">
-        <v>213.77600000000001</v>
+      <c r="A107" s="5">
+        <v>43114.8333333333</v>
+      </c>
+      <c r="B107" s="6">
+        <v>213.776</v>
       </c>
       <c r="D107">
-        <v>213.78393517000001</v>
+        <v>213.78393517</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="2">
+      <c r="A108" s="5">
         <v>43114.875</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="6">
         <v>213.774</v>
       </c>
       <c r="D108">
@@ -4774,21 +6406,21 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="2">
-        <v>43114.916666666701</v>
-      </c>
-      <c r="B109" s="3">
-        <v>213.77099999999999</v>
+      <c r="A109" s="5">
+        <v>43114.9166666667</v>
+      </c>
+      <c r="B109" s="6">
+        <v>213.771</v>
       </c>
       <c r="D109">
-        <v>213.78453368999999</v>
+        <v>213.78453369</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2">
-        <v>43114.958333333299</v>
-      </c>
-      <c r="B110" s="3">
+      <c r="A110" s="5">
+        <v>43114.9583333333</v>
+      </c>
+      <c r="B110" s="6">
         <v>213.774</v>
       </c>
       <c r="D110">
@@ -4796,43 +6428,52 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="2">
+      <c r="A111" s="5">
         <v>43115</v>
       </c>
-      <c r="B111" s="3">
-        <v>213.77500000000001</v>
+      <c r="B111" s="6">
+        <v>213.775</v>
       </c>
       <c r="D111">
-        <v>213.78525827999999</v>
+        <v>213.78525828</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>